--- a/Data/Working Data Raw (Training).xlsx
+++ b/Data/Working Data Raw (Training).xlsx
@@ -353,8 +353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="P768" workbookViewId="0">
+      <selection activeCell="U775" sqref="U775"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,7 +454,7 @@
         <v>4502</v>
       </c>
       <c r="AC1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>4789</v>
       </c>
       <c r="AC2">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>3512</v>
       </c>
       <c r="AC3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>1080</v>
       </c>
       <c r="AC4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
@@ -810,7 +810,7 @@
         <v>8941</v>
       </c>
       <c r="AC5">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>5107</v>
       </c>
       <c r="AC6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
@@ -988,7 +988,7 @@
         <v>64618</v>
       </c>
       <c r="AC7">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>4399</v>
       </c>
       <c r="AC9">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
         <v>2556</v>
       </c>
       <c r="AC10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,7 @@
         <v>260239</v>
       </c>
       <c r="AC11">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>1874</v>
       </c>
       <c r="AC12">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>35349</v>
       </c>
       <c r="AC13">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -1611,7 +1611,7 @@
         <v>36574</v>
       </c>
       <c r="AC14">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
@@ -1700,7 +1700,7 @@
         <v>2034</v>
       </c>
       <c r="AC15">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>20727</v>
       </c>
       <c r="AC16">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>8783</v>
       </c>
       <c r="AC17">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>160319</v>
       </c>
       <c r="AC18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <v>369</v>
       </c>
       <c r="AC19">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>2533</v>
       </c>
       <c r="AC20">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>80105</v>
       </c>
       <c r="AC21">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -2412,7 +2412,7 @@
         <v>17407</v>
       </c>
       <c r="AC23">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>2901</v>
       </c>
       <c r="AC25">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -2679,7 +2679,7 @@
         <v>625</v>
       </c>
       <c r="AC26">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -2768,7 +2768,7 @@
         <v>349938</v>
       </c>
       <c r="AC27">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -2857,7 +2857,7 @@
         <v>2827</v>
       </c>
       <c r="AC28">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -2946,7 +2946,7 @@
         <v>1863</v>
       </c>
       <c r="AC29">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -3035,7 +3035,7 @@
         <v>3455</v>
       </c>
       <c r="AC30">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -3124,7 +3124,7 @@
         <v>1814</v>
       </c>
       <c r="AC31">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
         <v>1448</v>
       </c>
       <c r="AC32">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -3302,7 +3302,7 @@
         <v>3489</v>
       </c>
       <c r="AC33">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -3391,7 +3391,7 @@
         <v>1825</v>
       </c>
       <c r="AC34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -3569,7 +3569,7 @@
         <v>144167</v>
       </c>
       <c r="AC36">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -3658,7 +3658,7 @@
         <v>3149</v>
       </c>
       <c r="AC37">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -3747,7 +3747,7 @@
         <v>5377</v>
       </c>
       <c r="AC38">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
         <v>214837</v>
       </c>
       <c r="AC39">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -3925,7 +3925,7 @@
         <v>3714</v>
       </c>
       <c r="AC40">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
@@ -4014,7 +4014,7 @@
         <v>3635</v>
       </c>
       <c r="AC41">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>12612</v>
       </c>
       <c r="AC42">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
@@ -4192,7 +4192,7 @@
         <v>29337</v>
       </c>
       <c r="AC43">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
@@ -4281,7 +4281,7 @@
         <v>5278</v>
       </c>
       <c r="AC44">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
@@ -4370,7 +4370,7 @@
         <v>13764</v>
       </c>
       <c r="AC45">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
@@ -4459,7 +4459,7 @@
         <v>21249</v>
       </c>
       <c r="AC46">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>4009</v>
       </c>
       <c r="AC47">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
@@ -4637,7 +4637,7 @@
         <v>7025</v>
       </c>
       <c r="AC48">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
@@ -4726,7 +4726,7 @@
         <v>3823</v>
       </c>
       <c r="AC49">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>7044</v>
       </c>
       <c r="AC50">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
         <v>890</v>
       </c>
       <c r="AC51">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>1500</v>
       </c>
       <c r="AC52">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
         <v>6302</v>
       </c>
       <c r="AC53">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
@@ -5171,7 +5171,7 @@
         <v>4354</v>
       </c>
       <c r="AC54">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
@@ -5260,7 +5260,7 @@
         <v>12717</v>
       </c>
       <c r="AC55">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
@@ -5349,7 +5349,7 @@
         <v>6027</v>
       </c>
       <c r="AC56">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
@@ -5438,7 +5438,7 @@
         <v>7304</v>
       </c>
       <c r="AC57">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
@@ -5616,7 +5616,7 @@
         <v>2178</v>
       </c>
       <c r="AC59">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
@@ -5705,7 +5705,7 @@
         <v>880</v>
       </c>
       <c r="AC60">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
@@ -5794,7 +5794,7 @@
         <v>5527</v>
       </c>
       <c r="AC61">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
@@ -5883,7 +5883,7 @@
         <v>4751</v>
       </c>
       <c r="AC62">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
@@ -5972,7 +5972,7 @@
         <v>2370</v>
       </c>
       <c r="AC63">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
@@ -6061,7 +6061,7 @@
         <v>24022</v>
       </c>
       <c r="AC64">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
@@ -6150,7 +6150,7 @@
         <v>21696</v>
       </c>
       <c r="AC65">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>50668</v>
       </c>
       <c r="AC66">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
         <v>11923</v>
       </c>
       <c r="AC67">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
@@ -6417,7 +6417,7 @@
         <v>16188</v>
       </c>
       <c r="AC68">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
@@ -6595,7 +6595,7 @@
         <v>1267</v>
       </c>
       <c r="AC70">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
         <v>4800</v>
       </c>
       <c r="AC71">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
@@ -6773,7 +6773,7 @@
         <v>25108</v>
       </c>
       <c r="AC72">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
@@ -6862,7 +6862,7 @@
         <v>4835</v>
       </c>
       <c r="AC73">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>8798</v>
       </c>
       <c r="AC74">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
@@ -7040,7 +7040,7 @@
         <v>100704</v>
       </c>
       <c r="AC75">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
@@ -7129,7 +7129,7 @@
         <v>1103</v>
       </c>
       <c r="AC76">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -7218,7 +7218,7 @@
         <v>2677</v>
       </c>
       <c r="AC77">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
@@ -7307,7 +7307,7 @@
         <v>2768</v>
       </c>
       <c r="AC78">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
@@ -7396,7 +7396,7 @@
         <v>59996</v>
       </c>
       <c r="AC79">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
@@ -7485,7 +7485,7 @@
         <v>6266</v>
       </c>
       <c r="AC80">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
@@ -7574,7 +7574,7 @@
         <v>8082</v>
       </c>
       <c r="AC81">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
@@ -7663,7 +7663,7 @@
         <v>10207</v>
       </c>
       <c r="AC82">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
@@ -7752,7 +7752,7 @@
         <v>955</v>
       </c>
       <c r="AC83">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
@@ -7841,7 +7841,7 @@
         <v>5544</v>
       </c>
       <c r="AC84">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
@@ -8019,7 +8019,7 @@
         <v>25344</v>
       </c>
       <c r="AC86">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
@@ -8108,7 +8108,7 @@
         <v>1191</v>
       </c>
       <c r="AC87">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
@@ -8197,7 +8197,7 @@
         <v>243975</v>
       </c>
       <c r="AC88">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
@@ -8286,7 +8286,7 @@
         <v>1399</v>
       </c>
       <c r="AC89">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
@@ -8375,7 +8375,7 @@
         <v>10433</v>
       </c>
       <c r="AC90">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
@@ -8464,7 +8464,7 @@
         <v>26442</v>
       </c>
       <c r="AC91">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
@@ -8642,7 +8642,7 @@
         <v>27549</v>
       </c>
       <c r="AC93">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.2">
@@ -8731,7 +8731,7 @@
         <v>8188</v>
       </c>
       <c r="AC94">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.2">
@@ -8820,7 +8820,7 @@
         <v>39423</v>
       </c>
       <c r="AC95">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.2">
@@ -8909,7 +8909,7 @@
         <v>183845</v>
       </c>
       <c r="AC96">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
         <v>12700</v>
       </c>
       <c r="AC97">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
@@ -9087,7 +9087,7 @@
         <v>2949</v>
       </c>
       <c r="AC98">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.2">
@@ -9176,7 +9176,7 @@
         <v>1503</v>
       </c>
       <c r="AC99">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
@@ -9265,7 +9265,7 @@
         <v>4512</v>
       </c>
       <c r="AC100">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.2">
@@ -9354,7 +9354,7 @@
         <v>138117</v>
       </c>
       <c r="AC101">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
@@ -9443,7 +9443,7 @@
         <v>25264</v>
       </c>
       <c r="AC102">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
@@ -9532,7 +9532,7 @@
         <v>13261</v>
       </c>
       <c r="AC103">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
@@ -9621,7 +9621,7 @@
         <v>108013</v>
       </c>
       <c r="AC104">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
@@ -9710,7 +9710,7 @@
         <v>2083</v>
       </c>
       <c r="AC105">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
@@ -9888,7 +9888,7 @@
         <v>55441</v>
       </c>
       <c r="AC107">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
@@ -9977,7 +9977,7 @@
         <v>9233</v>
       </c>
       <c r="AC108">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.2">
@@ -10066,7 +10066,7 @@
         <v>1332328</v>
       </c>
       <c r="AC109">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.2">
@@ -10155,7 +10155,7 @@
         <v>108884</v>
       </c>
       <c r="AC110">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.2">
@@ -10244,7 +10244,7 @@
         <v>164563</v>
       </c>
       <c r="AC111">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.2">
@@ -10333,7 +10333,7 @@
         <v>5101</v>
       </c>
       <c r="AC112">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.2">
@@ -10422,7 +10422,7 @@
         <v>6878</v>
       </c>
       <c r="AC113">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.2">
@@ -10511,7 +10511,7 @@
         <v>5746</v>
       </c>
       <c r="AC114">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
@@ -10689,7 +10689,7 @@
         <v>546094</v>
       </c>
       <c r="AC116">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.2">
@@ -10778,7 +10778,7 @@
         <v>1036352</v>
       </c>
       <c r="AC117">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.2">
@@ -10867,7 +10867,7 @@
         <v>3388</v>
       </c>
       <c r="AC118">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.2">
@@ -10956,7 +10956,7 @@
         <v>15463</v>
       </c>
       <c r="AC119">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.2">
@@ -11134,7 +11134,7 @@
         <v>13796</v>
       </c>
       <c r="AC121">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.2">
@@ -11223,7 +11223,7 @@
         <v>18044</v>
       </c>
       <c r="AC122">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
@@ -11312,7 +11312,7 @@
         <v>20609</v>
       </c>
       <c r="AC123">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.2">
@@ -11401,7 +11401,7 @@
         <v>218264</v>
       </c>
       <c r="AC124">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
@@ -11579,7 +11579,7 @@
         <v>11222</v>
       </c>
       <c r="AC126">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
@@ -11668,7 +11668,7 @@
         <v>983</v>
       </c>
       <c r="AC127">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
@@ -11757,7 +11757,7 @@
         <v>24132</v>
       </c>
       <c r="AC128">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
@@ -11846,7 +11846,7 @@
         <v>22803</v>
       </c>
       <c r="AC129">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
@@ -11935,7 +11935,7 @@
         <v>6115</v>
       </c>
       <c r="AC130">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
@@ -12024,7 +12024,7 @@
         <v>30575</v>
       </c>
       <c r="AC131">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
@@ -12113,7 +12113,7 @@
         <v>17086</v>
       </c>
       <c r="AC132">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
@@ -12202,7 +12202,7 @@
         <v>712</v>
       </c>
       <c r="AC133">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
@@ -12291,7 +12291,7 @@
         <v>5108</v>
       </c>
       <c r="AC134">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
@@ -12380,7 +12380,7 @@
         <v>3690</v>
       </c>
       <c r="AC135">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
@@ -12469,7 +12469,7 @@
         <v>462105</v>
       </c>
       <c r="AC136">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
@@ -12558,7 +12558,7 @@
         <v>1835</v>
       </c>
       <c r="AC137">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
@@ -12914,7 +12914,7 @@
         <v>4799</v>
       </c>
       <c r="AC141">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
@@ -13003,7 +13003,7 @@
         <v>51931</v>
       </c>
       <c r="AC142">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
@@ -13092,7 +13092,7 @@
         <v>1383</v>
       </c>
       <c r="AC143">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
@@ -13181,7 +13181,7 @@
         <v>7190</v>
       </c>
       <c r="AC144">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
@@ -13270,7 +13270,7 @@
         <v>3183</v>
       </c>
       <c r="AC145">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
@@ -13359,7 +13359,7 @@
         <v>70505</v>
       </c>
       <c r="AC146">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
@@ -13448,7 +13448,7 @@
         <v>7047</v>
       </c>
       <c r="AC147">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
@@ -13537,7 +13537,7 @@
         <v>49339</v>
       </c>
       <c r="AC148">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
@@ -13626,7 +13626,7 @@
         <v>55365</v>
       </c>
       <c r="AC149">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
@@ -13804,7 +13804,7 @@
         <v>1389</v>
       </c>
       <c r="AC151">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
@@ -13893,7 +13893,7 @@
         <v>3046</v>
       </c>
       <c r="AC152">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
@@ -13982,7 +13982,7 @@
         <v>480</v>
       </c>
       <c r="AC153">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
@@ -14071,7 +14071,7 @@
         <v>2138</v>
       </c>
       <c r="AC154">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
@@ -14160,7 +14160,7 @@
         <v>2937</v>
       </c>
       <c r="AC155">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
@@ -14249,7 +14249,7 @@
         <v>28317</v>
       </c>
       <c r="AC156">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.2">
@@ -14338,7 +14338,7 @@
         <v>47122</v>
       </c>
       <c r="AC157">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.2">
@@ -14427,7 +14427,7 @@
         <v>4217</v>
       </c>
       <c r="AC158">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.2">
@@ -14516,7 +14516,7 @@
         <v>2776</v>
       </c>
       <c r="AC159">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.2">
@@ -14605,7 +14605,7 @@
         <v>3844837</v>
       </c>
       <c r="AC160">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.2">
@@ -14694,7 +14694,7 @@
         <v>7269</v>
       </c>
       <c r="AC161">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.2">
@@ -14783,7 +14783,7 @@
         <v>27876</v>
       </c>
       <c r="AC162">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.2">
@@ -14872,7 +14872,7 @@
         <v>16141</v>
       </c>
       <c r="AC163">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.2">
@@ -14961,7 +14961,7 @@
         <v>2565</v>
       </c>
       <c r="AC164">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.2">
@@ -15050,7 +15050,7 @@
         <v>624314</v>
       </c>
       <c r="AC165">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.2">
@@ -15139,7 +15139,7 @@
         <v>3404</v>
       </c>
       <c r="AC166">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.2">
@@ -15228,7 +15228,7 @@
         <v>3626</v>
       </c>
       <c r="AC167">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.2">
@@ -15317,7 +15317,7 @@
         <v>2727</v>
       </c>
       <c r="AC168">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.2">
@@ -15406,7 +15406,7 @@
         <v>3258</v>
       </c>
       <c r="AC169">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.2">
@@ -15495,7 +15495,7 @@
         <v>165966</v>
       </c>
       <c r="AC170">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.2">
@@ -15584,7 +15584,7 @@
         <v>1466</v>
       </c>
       <c r="AC171">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.2">
@@ -15673,7 +15673,7 @@
         <v>4120</v>
       </c>
       <c r="AC172">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.2">
@@ -15762,7 +15762,7 @@
         <v>50571</v>
       </c>
       <c r="AC173">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.2">
@@ -15851,7 +15851,7 @@
         <v>10241</v>
       </c>
       <c r="AC174">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.2">
@@ -15940,7 +15940,7 @@
         <v>6014</v>
       </c>
       <c r="AC175">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.2">
@@ -16029,7 +16029,7 @@
         <v>865</v>
       </c>
       <c r="AC176">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.2">
@@ -16118,7 +16118,7 @@
         <v>45024</v>
       </c>
       <c r="AC177">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.2">
@@ -16207,7 +16207,7 @@
         <v>2175</v>
       </c>
       <c r="AC178">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.2">
@@ -16296,7 +16296,7 @@
         <v>630742</v>
       </c>
       <c r="AC179">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.2">
@@ -16385,7 +16385,7 @@
         <v>7857</v>
       </c>
       <c r="AC180">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.2">
@@ -16474,7 +16474,7 @@
         <v>3613</v>
       </c>
       <c r="AC181">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.2">
@@ -16563,7 +16563,7 @@
         <v>397</v>
       </c>
       <c r="AC182">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.2">
@@ -16652,7 +16652,7 @@
         <v>2408</v>
       </c>
       <c r="AC183">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.2">
@@ -16741,7 +16741,7 @@
         <v>68247</v>
       </c>
       <c r="AC184">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.2">
@@ -16830,7 +16830,7 @@
         <v>1675</v>
       </c>
       <c r="AC185">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.2">
@@ -16919,7 +16919,7 @@
         <v>652561</v>
       </c>
       <c r="AC186">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.2">
@@ -17097,7 +17097,7 @@
         <v>10647</v>
       </c>
       <c r="AC188">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.2">
@@ -17186,7 +17186,7 @@
         <v>2784</v>
       </c>
       <c r="AC189">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.2">
@@ -17275,7 +17275,7 @@
         <v>1631</v>
       </c>
       <c r="AC190">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.2">
@@ -17364,7 +17364,7 @@
         <v>2346</v>
       </c>
       <c r="AC191">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.2">
@@ -17453,7 +17453,7 @@
         <v>4685</v>
       </c>
       <c r="AC192">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.2">
@@ -17542,7 +17542,7 @@
         <v>89252</v>
       </c>
       <c r="AC193">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.2">
@@ -17631,7 +17631,7 @@
         <v>1689</v>
       </c>
       <c r="AC194">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.2">
@@ -17720,7 +17720,7 @@
         <v>8177</v>
       </c>
       <c r="AC195">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.2">
@@ -17809,7 +17809,7 @@
         <v>116556</v>
       </c>
       <c r="AC196">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.2">
@@ -17898,7 +17898,7 @@
         <v>1998</v>
       </c>
       <c r="AC197">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.2">
@@ -17987,7 +17987,7 @@
         <v>53417</v>
       </c>
       <c r="AC198">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.2">
@@ -18165,7 +18165,7 @@
         <v>1818</v>
       </c>
       <c r="AC200">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.2">
@@ -18254,7 +18254,7 @@
         <v>217575</v>
       </c>
       <c r="AC201">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.2">
@@ -18343,7 +18343,7 @@
         <v>1362</v>
       </c>
       <c r="AC202">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.2">
@@ -18432,7 +18432,7 @@
         <v>7221</v>
       </c>
       <c r="AC203">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.2">
@@ -18521,7 +18521,7 @@
         <v>8022</v>
       </c>
       <c r="AC204">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:29" x14ac:dyDescent="0.2">
@@ -18610,7 +18610,7 @@
         <v>2077</v>
       </c>
       <c r="AC205">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:29" x14ac:dyDescent="0.2">
@@ -18699,7 +18699,7 @@
         <v>126564</v>
       </c>
       <c r="AC206">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:29" x14ac:dyDescent="0.2">
@@ -18788,7 +18788,7 @@
         <v>1339875</v>
       </c>
       <c r="AC207">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:29" x14ac:dyDescent="0.2">
@@ -18877,7 +18877,7 @@
         <v>3468</v>
       </c>
       <c r="AC208">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.2">
@@ -18966,7 +18966,7 @@
         <v>9525</v>
       </c>
       <c r="AC209">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.2">
@@ -19055,7 +19055,7 @@
         <v>7675</v>
       </c>
       <c r="AC210">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:29" x14ac:dyDescent="0.2">
@@ -19233,7 +19233,7 @@
         <v>513</v>
       </c>
       <c r="AC212">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:29" x14ac:dyDescent="0.2">
@@ -19322,7 +19322,7 @@
         <v>1115</v>
       </c>
       <c r="AC213">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:29" x14ac:dyDescent="0.2">
@@ -19411,7 +19411,7 @@
         <v>12999</v>
       </c>
       <c r="AC214">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.2">
@@ -19500,7 +19500,7 @@
         <v>4089</v>
       </c>
       <c r="AC215">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.2">
@@ -19589,7 +19589,7 @@
         <v>1028827</v>
       </c>
       <c r="AC216">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.2">
@@ -19678,7 +19678,7 @@
         <v>35194</v>
       </c>
       <c r="AC217">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:29" x14ac:dyDescent="0.2">
@@ -19767,7 +19767,7 @@
         <v>1795</v>
       </c>
       <c r="AC218">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:29" x14ac:dyDescent="0.2">
@@ -19856,7 +19856,7 @@
         <v>122169</v>
       </c>
       <c r="AC219">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:29" x14ac:dyDescent="0.2">
@@ -19945,7 +19945,7 @@
         <v>1170408</v>
       </c>
       <c r="AC220">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:29" x14ac:dyDescent="0.2">
@@ -20034,7 +20034,7 @@
         <v>23656</v>
       </c>
       <c r="AC221">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.2">
@@ -20123,7 +20123,7 @@
         <v>22175</v>
       </c>
       <c r="AC222">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:29" x14ac:dyDescent="0.2">
@@ -20301,7 +20301,7 @@
         <v>138977</v>
       </c>
       <c r="AC224">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:29" x14ac:dyDescent="0.2">
@@ -20390,7 +20390,7 @@
         <v>7637</v>
       </c>
       <c r="AC225">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:29" x14ac:dyDescent="0.2">
@@ -20479,7 +20479,7 @@
         <v>1287</v>
       </c>
       <c r="AC226">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:29" x14ac:dyDescent="0.2">
@@ -20568,7 +20568,7 @@
         <v>2498</v>
       </c>
       <c r="AC227">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:29" x14ac:dyDescent="0.2">
@@ -20657,7 +20657,7 @@
         <v>3557</v>
       </c>
       <c r="AC228">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:29" x14ac:dyDescent="0.2">
@@ -20746,7 +20746,7 @@
         <v>19669</v>
       </c>
       <c r="AC229">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:29" x14ac:dyDescent="0.2">
@@ -20924,7 +20924,7 @@
         <v>157988</v>
       </c>
       <c r="AC231">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:29" x14ac:dyDescent="0.2">
@@ -21013,7 +21013,7 @@
         <v>33506</v>
       </c>
       <c r="AC232">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:29" x14ac:dyDescent="0.2">
@@ -21102,7 +21102,7 @@
         <v>98704</v>
       </c>
       <c r="AC233">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:29" x14ac:dyDescent="0.2">
@@ -21191,7 +21191,7 @@
         <v>1647</v>
       </c>
       <c r="AC234">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:29" x14ac:dyDescent="0.2">
@@ -21280,7 +21280,7 @@
         <v>51281</v>
       </c>
       <c r="AC235">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:29" x14ac:dyDescent="0.2">
@@ -21369,7 +21369,7 @@
         <v>53574</v>
       </c>
       <c r="AC236">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.2">
@@ -21547,7 +21547,7 @@
         <v>2564</v>
       </c>
       <c r="AC238">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:29" x14ac:dyDescent="0.2">
@@ -21636,7 +21636,7 @@
         <v>5746</v>
       </c>
       <c r="AC239">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:29" x14ac:dyDescent="0.2">
@@ -21725,7 +21725,7 @@
         <v>4783</v>
       </c>
       <c r="AC240">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:29" x14ac:dyDescent="0.2">
@@ -21903,7 +21903,7 @@
         <v>24663</v>
       </c>
       <c r="AC242">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:29" x14ac:dyDescent="0.2">
@@ -22081,7 +22081,7 @@
         <v>192725</v>
       </c>
       <c r="AC244">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:29" x14ac:dyDescent="0.2">
@@ -22259,7 +22259,7 @@
         <v>91345</v>
       </c>
       <c r="AC246">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:29" x14ac:dyDescent="0.2">
@@ -22348,7 +22348,7 @@
         <v>4527</v>
       </c>
       <c r="AC247">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:29" x14ac:dyDescent="0.2">
@@ -22437,7 +22437,7 @@
         <v>80778</v>
       </c>
       <c r="AC248">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:29" x14ac:dyDescent="0.2">
@@ -22526,7 +22526,7 @@
         <v>46421</v>
       </c>
       <c r="AC249">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:29" x14ac:dyDescent="0.2">
@@ -22615,7 +22615,7 @@
         <v>7616</v>
       </c>
       <c r="AC250">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:29" x14ac:dyDescent="0.2">
@@ -22793,7 +22793,7 @@
         <v>9493</v>
       </c>
       <c r="AC252">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:29" x14ac:dyDescent="0.2">
@@ -22882,7 +22882,7 @@
         <v>1750</v>
       </c>
       <c r="AC253">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:29" x14ac:dyDescent="0.2">
@@ -22971,7 +22971,7 @@
         <v>62091</v>
       </c>
       <c r="AC254">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:29" x14ac:dyDescent="0.2">
@@ -23149,7 +23149,7 @@
         <v>29229</v>
       </c>
       <c r="AC256">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:29" x14ac:dyDescent="0.2">
@@ -23238,7 +23238,7 @@
         <v>237622</v>
       </c>
       <c r="AC257">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:29" x14ac:dyDescent="0.2">
@@ -23327,7 +23327,7 @@
         <v>2836</v>
       </c>
       <c r="AC258">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:29" x14ac:dyDescent="0.2">
@@ -23416,7 +23416,7 @@
         <v>16621</v>
       </c>
       <c r="AC259">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:29" x14ac:dyDescent="0.2">
@@ -23594,7 +23594,7 @@
         <v>2967</v>
       </c>
       <c r="AC261">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:29" x14ac:dyDescent="0.2">
@@ -23683,7 +23683,7 @@
         <v>282284</v>
       </c>
       <c r="AC262">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:29" x14ac:dyDescent="0.2">
@@ -23772,7 +23772,7 @@
         <v>3039</v>
       </c>
       <c r="AC263">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:29" x14ac:dyDescent="0.2">
@@ -23861,7 +23861,7 @@
         <v>38795</v>
       </c>
       <c r="AC264">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:29" x14ac:dyDescent="0.2">
@@ -23950,7 +23950,7 @@
         <v>1386</v>
       </c>
       <c r="AC265">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:29" x14ac:dyDescent="0.2">
@@ -24039,7 +24039,7 @@
         <v>10746</v>
       </c>
       <c r="AC266">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:29" x14ac:dyDescent="0.2">
@@ -24128,7 +24128,7 @@
         <v>175071</v>
       </c>
       <c r="AC267">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:29" x14ac:dyDescent="0.2">
@@ -24217,7 +24217,7 @@
         <v>49329</v>
       </c>
       <c r="AC268">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:29" x14ac:dyDescent="0.2">
@@ -24306,7 +24306,7 @@
         <v>1978</v>
       </c>
       <c r="AC269">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:29" x14ac:dyDescent="0.2">
@@ -24395,7 +24395,7 @@
         <v>1837</v>
       </c>
       <c r="AC270">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:29" x14ac:dyDescent="0.2">
@@ -24484,7 +24484,7 @@
         <v>19419</v>
       </c>
       <c r="AC271">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:29" x14ac:dyDescent="0.2">
@@ -24573,7 +24573,7 @@
         <v>4595</v>
       </c>
       <c r="AC272">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:29" x14ac:dyDescent="0.2">
@@ -24662,7 +24662,7 @@
         <v>21995</v>
       </c>
       <c r="AC273">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:29" x14ac:dyDescent="0.2">
@@ -24751,7 +24751,7 @@
         <v>237866</v>
       </c>
       <c r="AC274">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:29" x14ac:dyDescent="0.2">
@@ -24840,7 +24840,7 @@
         <v>13157</v>
       </c>
       <c r="AC275">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:29" x14ac:dyDescent="0.2">
@@ -24929,7 +24929,7 @@
         <v>494479</v>
       </c>
       <c r="AC276">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.2">
@@ -25018,7 +25018,7 @@
         <v>1742</v>
       </c>
       <c r="AC277">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.2">
@@ -25107,7 +25107,7 @@
         <v>94335</v>
       </c>
       <c r="AC278">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.2">
@@ -25196,7 +25196,7 @@
         <v>2864</v>
       </c>
       <c r="AC279">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.2">
@@ -25285,7 +25285,7 @@
         <v>211221</v>
       </c>
       <c r="AC280">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:29" x14ac:dyDescent="0.2">
@@ -25374,7 +25374,7 @@
         <v>591</v>
       </c>
       <c r="AC281">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.2">
@@ -25552,7 +25552,7 @@
         <v>108617</v>
       </c>
       <c r="AC283">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.2">
@@ -25641,7 +25641,7 @@
         <v>6710</v>
       </c>
       <c r="AC284">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.2">
@@ -25730,7 +25730,7 @@
         <v>22466</v>
       </c>
       <c r="AC285">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:29" x14ac:dyDescent="0.2">
@@ -25819,7 +25819,7 @@
         <v>10396</v>
       </c>
       <c r="AC286">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.2">
@@ -25908,7 +25908,7 @@
         <v>192099</v>
       </c>
       <c r="AC287">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.2">
@@ -25997,7 +25997,7 @@
         <v>10956</v>
       </c>
       <c r="AC288">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.2">
@@ -26086,7 +26086,7 @@
         <v>14796</v>
       </c>
       <c r="AC289">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:29" x14ac:dyDescent="0.2">
@@ -26175,7 +26175,7 @@
         <v>4582</v>
       </c>
       <c r="AC290">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.2">
@@ -26264,7 +26264,7 @@
         <v>3165</v>
       </c>
       <c r="AC291">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:29" x14ac:dyDescent="0.2">
@@ -26353,7 +26353,7 @@
         <v>13119</v>
       </c>
       <c r="AC292">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.2">
@@ -26442,7 +26442,7 @@
         <v>148015</v>
       </c>
       <c r="AC293">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:29" x14ac:dyDescent="0.2">
@@ -26620,7 +26620,7 @@
         <v>1331</v>
       </c>
       <c r="AC295">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:29" x14ac:dyDescent="0.2">
@@ -26709,7 +26709,7 @@
         <v>761114</v>
       </c>
       <c r="AC296">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.2">
@@ -26798,7 +26798,7 @@
         <v>1143</v>
       </c>
       <c r="AC297">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:29" x14ac:dyDescent="0.2">
@@ -26887,7 +26887,7 @@
         <v>86972</v>
       </c>
       <c r="AC298">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.2">
@@ -26976,7 +26976,7 @@
         <v>5745</v>
       </c>
       <c r="AC299">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:29" x14ac:dyDescent="0.2">
@@ -27065,7 +27065,7 @@
         <v>63249</v>
       </c>
       <c r="AC300">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:29" x14ac:dyDescent="0.2">
@@ -27243,7 +27243,7 @@
         <v>126253</v>
       </c>
       <c r="AC302">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="303" spans="1:29" x14ac:dyDescent="0.2">
@@ -27332,7 +27332,7 @@
         <v>481303</v>
       </c>
       <c r="AC303">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:29" x14ac:dyDescent="0.2">
@@ -27421,7 +27421,7 @@
         <v>3443</v>
       </c>
       <c r="AC304">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:29" x14ac:dyDescent="0.2">
@@ -27510,7 +27510,7 @@
         <v>2536</v>
       </c>
       <c r="AC305">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:29" x14ac:dyDescent="0.2">
@@ -27599,7 +27599,7 @@
         <v>970</v>
       </c>
       <c r="AC306">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:29" x14ac:dyDescent="0.2">
@@ -27688,7 +27688,7 @@
         <v>1780</v>
       </c>
       <c r="AC307">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:29" x14ac:dyDescent="0.2">
@@ -27777,7 +27777,7 @@
         <v>303577</v>
       </c>
       <c r="AC308">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309" spans="1:29" x14ac:dyDescent="0.2">
@@ -27866,7 +27866,7 @@
         <v>4611</v>
       </c>
       <c r="AC309">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:29" x14ac:dyDescent="0.2">
@@ -28044,7 +28044,7 @@
         <v>13823</v>
       </c>
       <c r="AC311">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:29" x14ac:dyDescent="0.2">
@@ -28133,7 +28133,7 @@
         <v>183557</v>
       </c>
       <c r="AC312">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:29" x14ac:dyDescent="0.2">
@@ -28222,7 +28222,7 @@
         <v>28633</v>
       </c>
       <c r="AC313">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:29" x14ac:dyDescent="0.2">
@@ -28311,7 +28311,7 @@
         <v>3387</v>
       </c>
       <c r="AC314">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:29" x14ac:dyDescent="0.2">
@@ -28400,7 +28400,7 @@
         <v>24020</v>
       </c>
       <c r="AC315">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:29" x14ac:dyDescent="0.2">
@@ -28489,7 +28489,7 @@
         <v>45850</v>
       </c>
       <c r="AC316">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:29" x14ac:dyDescent="0.2">
@@ -28578,7 +28578,7 @@
         <v>11978</v>
       </c>
       <c r="AC317">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:29" x14ac:dyDescent="0.2">
@@ -28667,7 +28667,7 @@
         <v>3841</v>
       </c>
       <c r="AC318">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:29" x14ac:dyDescent="0.2">
@@ -28756,7 +28756,7 @@
         <v>856</v>
       </c>
       <c r="AC319">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:29" x14ac:dyDescent="0.2">
@@ -28845,7 +28845,7 @@
         <v>1779</v>
       </c>
       <c r="AC320">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:29" x14ac:dyDescent="0.2">
@@ -29023,7 +29023,7 @@
         <v>814</v>
       </c>
       <c r="AC322">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323" spans="1:29" x14ac:dyDescent="0.2">
@@ -29112,7 +29112,7 @@
         <v>836</v>
       </c>
       <c r="AC323">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:29" x14ac:dyDescent="0.2">
@@ -29201,7 +29201,7 @@
         <v>1646</v>
       </c>
       <c r="AC324">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:29" x14ac:dyDescent="0.2">
@@ -29468,7 +29468,7 @@
         <v>5249</v>
       </c>
       <c r="AC327">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:29" x14ac:dyDescent="0.2">
@@ -29557,7 +29557,7 @@
         <v>62806</v>
       </c>
       <c r="AC328">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:29" x14ac:dyDescent="0.2">
@@ -29646,7 +29646,7 @@
         <v>111384</v>
       </c>
       <c r="AC329">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:29" x14ac:dyDescent="0.2">
@@ -29735,7 +29735,7 @@
         <v>118315</v>
       </c>
       <c r="AC330">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:29" x14ac:dyDescent="0.2">
@@ -29824,7 +29824,7 @@
         <v>2236</v>
       </c>
       <c r="AC331">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332" spans="1:29" x14ac:dyDescent="0.2">
@@ -29913,7 +29913,7 @@
         <v>1873</v>
       </c>
       <c r="AC332">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:29" x14ac:dyDescent="0.2">
@@ -30002,7 +30002,7 @@
         <v>2012</v>
       </c>
       <c r="AC333">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:29" x14ac:dyDescent="0.2">
@@ -30091,7 +30091,7 @@
         <v>18173</v>
       </c>
       <c r="AC334">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:29" x14ac:dyDescent="0.2">
@@ -30180,7 +30180,7 @@
         <v>704839</v>
       </c>
       <c r="AC335">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:29" x14ac:dyDescent="0.2">
@@ -30269,7 +30269,7 @@
         <v>1015</v>
       </c>
       <c r="AC336">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:29" x14ac:dyDescent="0.2">
@@ -30358,7 +30358,7 @@
         <v>2651</v>
       </c>
       <c r="AC337">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:29" x14ac:dyDescent="0.2">
@@ -30447,7 +30447,7 @@
         <v>26474</v>
       </c>
       <c r="AC338">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339" spans="1:29" x14ac:dyDescent="0.2">
@@ -30536,7 +30536,7 @@
         <v>1962</v>
       </c>
       <c r="AC339">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:29" x14ac:dyDescent="0.2">
@@ -30625,7 +30625,7 @@
         <v>3106</v>
       </c>
       <c r="AC340">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.2">
@@ -30714,7 +30714,7 @@
         <v>80677</v>
       </c>
       <c r="AC341">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:29" x14ac:dyDescent="0.2">
@@ -30803,7 +30803,7 @@
         <v>577461</v>
       </c>
       <c r="AC342">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.2">
@@ -30892,7 +30892,7 @@
         <v>105224</v>
       </c>
       <c r="AC343">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.2">
@@ -30981,7 +30981,7 @@
         <v>343287</v>
       </c>
       <c r="AC344">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:29" x14ac:dyDescent="0.2">
@@ -31070,7 +31070,7 @@
         <v>19117</v>
       </c>
       <c r="AC345">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:29" x14ac:dyDescent="0.2">
@@ -31159,7 +31159,7 @@
         <v>41878</v>
       </c>
       <c r="AC346">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:29" x14ac:dyDescent="0.2">
@@ -31248,7 +31248,7 @@
         <v>19079</v>
       </c>
       <c r="AC347">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:29" x14ac:dyDescent="0.2">
@@ -31337,7 +31337,7 @@
         <v>46361</v>
       </c>
       <c r="AC348">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:29" x14ac:dyDescent="0.2">
@@ -31426,7 +31426,7 @@
         <v>6965</v>
       </c>
       <c r="AC349">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:29" x14ac:dyDescent="0.2">
@@ -31515,7 +31515,7 @@
         <v>3400</v>
       </c>
       <c r="AC350">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:29" x14ac:dyDescent="0.2">
@@ -31604,7 +31604,7 @@
         <v>26723</v>
       </c>
       <c r="AC351">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:29" x14ac:dyDescent="0.2">
@@ -31693,7 +31693,7 @@
         <v>1281</v>
       </c>
       <c r="AC352">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:29" x14ac:dyDescent="0.2">
@@ -31782,7 +31782,7 @@
         <v>10850</v>
       </c>
       <c r="AC353">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:29" x14ac:dyDescent="0.2">
@@ -31871,7 +31871,7 @@
         <v>3175</v>
       </c>
       <c r="AC354">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:29" x14ac:dyDescent="0.2">
@@ -32049,7 +32049,7 @@
         <v>2954</v>
       </c>
       <c r="AC356">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:29" x14ac:dyDescent="0.2">
@@ -32138,7 +32138,7 @@
         <v>170578</v>
       </c>
       <c r="AC357">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:29" x14ac:dyDescent="0.2">
@@ -32227,7 +32227,7 @@
         <v>2063</v>
       </c>
       <c r="AC358">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:29" x14ac:dyDescent="0.2">
@@ -32316,7 +32316,7 @@
         <v>2318</v>
       </c>
       <c r="AC359">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:29" x14ac:dyDescent="0.2">
@@ -32405,7 +32405,7 @@
         <v>1385</v>
       </c>
       <c r="AC360">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:29" x14ac:dyDescent="0.2">
@@ -32494,7 +32494,7 @@
         <v>7380</v>
       </c>
       <c r="AC361">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362" spans="1:29" x14ac:dyDescent="0.2">
@@ -32583,7 +32583,7 @@
         <v>1841648</v>
       </c>
       <c r="AC362">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:29" x14ac:dyDescent="0.2">
@@ -32761,7 +32761,7 @@
         <v>849006</v>
       </c>
       <c r="AC364">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" spans="1:29" x14ac:dyDescent="0.2">
@@ -32850,7 +32850,7 @@
         <v>9235</v>
       </c>
       <c r="AC365">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:29" x14ac:dyDescent="0.2">
@@ -32939,7 +32939,7 @@
         <v>1425</v>
       </c>
       <c r="AC366">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:29" x14ac:dyDescent="0.2">
@@ -33028,7 +33028,7 @@
         <v>1825</v>
       </c>
       <c r="AC367">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" spans="1:29" x14ac:dyDescent="0.2">
@@ -33117,7 +33117,7 @@
         <v>118111</v>
       </c>
       <c r="AC368">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:29" x14ac:dyDescent="0.2">
@@ -33206,7 +33206,7 @@
         <v>6208</v>
       </c>
       <c r="AC369">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:29" x14ac:dyDescent="0.2">
@@ -33295,7 +33295,7 @@
         <v>25032</v>
       </c>
       <c r="AC370">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:29" x14ac:dyDescent="0.2">
@@ -33473,7 +33473,7 @@
         <v>3167</v>
       </c>
       <c r="AC372">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:29" x14ac:dyDescent="0.2">
@@ -33562,7 +33562,7 @@
         <v>10613</v>
       </c>
       <c r="AC373">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="374" spans="1:29" x14ac:dyDescent="0.2">
@@ -33651,7 +33651,7 @@
         <v>3067</v>
       </c>
       <c r="AC374">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:29" x14ac:dyDescent="0.2">
@@ -33740,7 +33740,7 @@
         <v>40431</v>
       </c>
       <c r="AC375">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:29" x14ac:dyDescent="0.2">
@@ -33829,7 +33829,7 @@
         <v>3385</v>
       </c>
       <c r="AC376">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:29" x14ac:dyDescent="0.2">
@@ -33918,7 +33918,7 @@
         <v>1365</v>
       </c>
       <c r="AC377">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:29" x14ac:dyDescent="0.2">
@@ -34007,7 +34007,7 @@
         <v>106719</v>
       </c>
       <c r="AC378">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:29" x14ac:dyDescent="0.2">
@@ -34185,7 +34185,7 @@
         <v>1070</v>
       </c>
       <c r="AC380">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:29" x14ac:dyDescent="0.2">
@@ -34363,7 +34363,7 @@
         <v>4388</v>
       </c>
       <c r="AC382">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:29" x14ac:dyDescent="0.2">
@@ -34541,7 +34541,7 @@
         <v>9237</v>
       </c>
       <c r="AC384">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:29" x14ac:dyDescent="0.2">
@@ -34630,7 +34630,7 @@
         <v>113696</v>
       </c>
       <c r="AC385">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:29" x14ac:dyDescent="0.2">
@@ -34719,7 +34719,7 @@
         <v>8111</v>
       </c>
       <c r="AC386">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:29" x14ac:dyDescent="0.2">
@@ -34808,7 +34808,7 @@
         <v>10529</v>
       </c>
       <c r="AC387">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:29" x14ac:dyDescent="0.2">
@@ -34897,7 +34897,7 @@
         <v>3899</v>
       </c>
       <c r="AC388">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:29" x14ac:dyDescent="0.2">
@@ -34986,7 +34986,7 @@
         <v>1523</v>
       </c>
       <c r="AC389">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:29" x14ac:dyDescent="0.2">
@@ -35075,7 +35075,7 @@
         <v>6603834</v>
       </c>
       <c r="AC390">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:29" x14ac:dyDescent="0.2">
@@ -35164,7 +35164,7 @@
         <v>10212</v>
       </c>
       <c r="AC391">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392" spans="1:29" x14ac:dyDescent="0.2">
@@ -35253,7 +35253,7 @@
         <v>2737</v>
       </c>
       <c r="AC392">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:29" x14ac:dyDescent="0.2">
@@ -35431,7 +35431,7 @@
         <v>35119</v>
       </c>
       <c r="AC394">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395" spans="1:29" x14ac:dyDescent="0.2">
@@ -35520,7 +35520,7 @@
         <v>7140</v>
       </c>
       <c r="AC395">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:29" x14ac:dyDescent="0.2">
@@ -35609,7 +35609,7 @@
         <v>258392</v>
       </c>
       <c r="AC396">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:29" x14ac:dyDescent="0.2">
@@ -35698,7 +35698,7 @@
         <v>5834</v>
       </c>
       <c r="AC397">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:29" x14ac:dyDescent="0.2">
@@ -35787,7 +35787,7 @@
         <v>12387</v>
       </c>
       <c r="AC398">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:29" x14ac:dyDescent="0.2">
@@ -35876,7 +35876,7 @@
         <v>1180</v>
       </c>
       <c r="AC399">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:29" x14ac:dyDescent="0.2">
@@ -35965,7 +35965,7 @@
         <v>77393</v>
       </c>
       <c r="AC400">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:29" x14ac:dyDescent="0.2">
@@ -36054,7 +36054,7 @@
         <v>1899</v>
       </c>
       <c r="AC401">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:29" x14ac:dyDescent="0.2">
@@ -36143,7 +36143,7 @@
         <v>18229</v>
       </c>
       <c r="AC402">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:29" x14ac:dyDescent="0.2">
@@ -36232,7 +36232,7 @@
         <v>2630</v>
       </c>
       <c r="AC403">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:29" x14ac:dyDescent="0.2">
@@ -36410,7 +36410,7 @@
         <v>1944</v>
       </c>
       <c r="AC405">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="406" spans="1:29" x14ac:dyDescent="0.2">
@@ -36499,7 +36499,7 @@
         <v>5630</v>
       </c>
       <c r="AC406">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407" spans="1:29" x14ac:dyDescent="0.2">
@@ -36588,7 +36588,7 @@
         <v>670</v>
       </c>
       <c r="AC407">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:29" x14ac:dyDescent="0.2">
@@ -36677,7 +36677,7 @@
         <v>10555</v>
       </c>
       <c r="AC408">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:29" x14ac:dyDescent="0.2">
@@ -36766,7 +36766,7 @@
         <v>694</v>
       </c>
       <c r="AC409">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" spans="1:29" x14ac:dyDescent="0.2">
@@ -36855,7 +36855,7 @@
         <v>56725</v>
       </c>
       <c r="AC410">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:29" x14ac:dyDescent="0.2">
@@ -36944,7 +36944,7 @@
         <v>3255</v>
       </c>
       <c r="AC411">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:29" x14ac:dyDescent="0.2">
@@ -37033,7 +37033,7 @@
         <v>45533</v>
       </c>
       <c r="AC412">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:29" x14ac:dyDescent="0.2">
@@ -37211,7 +37211,7 @@
         <v>3371</v>
       </c>
       <c r="AC414">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:29" x14ac:dyDescent="0.2">
@@ -37300,7 +37300,7 @@
         <v>3820</v>
       </c>
       <c r="AC415">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:29" x14ac:dyDescent="0.2">
@@ -37389,7 +37389,7 @@
         <v>4957</v>
       </c>
       <c r="AC416">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:29" x14ac:dyDescent="0.2">
@@ -37478,7 +37478,7 @@
         <v>21651</v>
       </c>
       <c r="AC417">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:29" x14ac:dyDescent="0.2">
@@ -37745,7 +37745,7 @@
         <v>7956</v>
       </c>
       <c r="AC420">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421" spans="1:29" x14ac:dyDescent="0.2">
@@ -37923,7 +37923,7 @@
         <v>301662</v>
       </c>
       <c r="AC422">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="423" spans="1:29" x14ac:dyDescent="0.2">
@@ -38012,7 +38012,7 @@
         <v>3869</v>
       </c>
       <c r="AC423">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:29" x14ac:dyDescent="0.2">
@@ -38101,7 +38101,7 @@
         <v>470</v>
       </c>
       <c r="AC424">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="425" spans="1:29" x14ac:dyDescent="0.2">
@@ -38190,7 +38190,7 @@
         <v>2282</v>
       </c>
       <c r="AC425">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:29" x14ac:dyDescent="0.2">
@@ -38279,7 +38279,7 @@
         <v>756</v>
       </c>
       <c r="AC426">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427" spans="1:29" x14ac:dyDescent="0.2">
@@ -38368,7 +38368,7 @@
         <v>18091</v>
       </c>
       <c r="AC427">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:29" x14ac:dyDescent="0.2">
@@ -38457,7 +38457,7 @@
         <v>134269</v>
       </c>
       <c r="AC428">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:29" x14ac:dyDescent="0.2">
@@ -38546,7 +38546,7 @@
         <v>14436</v>
       </c>
       <c r="AC429">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:29" x14ac:dyDescent="0.2">
@@ -38635,7 +38635,7 @@
         <v>16629</v>
       </c>
       <c r="AC430">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:29" x14ac:dyDescent="0.2">
@@ -38724,7 +38724,7 @@
         <v>1458</v>
       </c>
       <c r="AC431">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:29" x14ac:dyDescent="0.2">
@@ -38813,7 +38813,7 @@
         <v>7116</v>
       </c>
       <c r="AC432">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:29" x14ac:dyDescent="0.2">
@@ -38902,7 +38902,7 @@
         <v>130147</v>
       </c>
       <c r="AC433">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:29" x14ac:dyDescent="0.2">
@@ -38991,7 +38991,7 @@
         <v>1237</v>
       </c>
       <c r="AC434">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="435" spans="1:29" x14ac:dyDescent="0.2">
@@ -39080,7 +39080,7 @@
         <v>923671</v>
       </c>
       <c r="AC435">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="436" spans="1:29" x14ac:dyDescent="0.2">
@@ -39169,7 +39169,7 @@
         <v>533221</v>
       </c>
       <c r="AC436">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437" spans="1:29" x14ac:dyDescent="0.2">
@@ -39258,7 +39258,7 @@
         <v>679882</v>
       </c>
       <c r="AC437">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438" spans="1:29" x14ac:dyDescent="0.2">
@@ -39347,7 +39347,7 @@
         <v>2394</v>
       </c>
       <c r="AC438">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439" spans="1:29" x14ac:dyDescent="0.2">
@@ -39436,7 +39436,7 @@
         <v>2569</v>
       </c>
       <c r="AC439">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:29" x14ac:dyDescent="0.2">
@@ -39525,7 +39525,7 @@
         <v>12140</v>
       </c>
       <c r="AC440">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441" spans="1:29" x14ac:dyDescent="0.2">
@@ -39614,7 +39614,7 @@
         <v>53031</v>
       </c>
       <c r="AC441">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="442" spans="1:29" x14ac:dyDescent="0.2">
@@ -39703,7 +39703,7 @@
         <v>17302</v>
       </c>
       <c r="AC442">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:29" x14ac:dyDescent="0.2">
@@ -39792,7 +39792,7 @@
         <v>1256</v>
       </c>
       <c r="AC443">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:29" x14ac:dyDescent="0.2">
@@ -39881,7 +39881,7 @@
         <v>8895</v>
       </c>
       <c r="AC444">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445" spans="1:29" x14ac:dyDescent="0.2">
@@ -39970,7 +39970,7 @@
         <v>15240</v>
       </c>
       <c r="AC445">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446" spans="1:29" x14ac:dyDescent="0.2">
@@ -40059,7 +40059,7 @@
         <v>1220</v>
       </c>
       <c r="AC446">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447" spans="1:29" x14ac:dyDescent="0.2">
@@ -40148,7 +40148,7 @@
         <v>761</v>
       </c>
       <c r="AC447">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:29" x14ac:dyDescent="0.2">
@@ -40237,7 +40237,7 @@
         <v>4521</v>
       </c>
       <c r="AC448">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449" spans="1:29" x14ac:dyDescent="0.2">
@@ -40326,7 +40326,7 @@
         <v>14927</v>
       </c>
       <c r="AC449">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450" spans="1:29" x14ac:dyDescent="0.2">
@@ -40415,7 +40415,7 @@
         <v>5336</v>
       </c>
       <c r="AC450">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="451" spans="1:29" x14ac:dyDescent="0.2">
@@ -40504,7 +40504,7 @@
         <v>2679</v>
       </c>
       <c r="AC451">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:29" x14ac:dyDescent="0.2">
@@ -40593,7 +40593,7 @@
         <v>612465</v>
       </c>
       <c r="AC452">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453" spans="1:29" x14ac:dyDescent="0.2">
@@ -40682,7 +40682,7 @@
         <v>287034</v>
       </c>
       <c r="AC453">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="454" spans="1:29" x14ac:dyDescent="0.2">
@@ -40771,7 +40771,7 @@
         <v>2510</v>
       </c>
       <c r="AC454">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455" spans="1:29" x14ac:dyDescent="0.2">
@@ -40860,7 +40860,7 @@
         <v>2586</v>
       </c>
       <c r="AC455">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456" spans="1:29" x14ac:dyDescent="0.2">
@@ -40949,7 +40949,7 @@
         <v>888</v>
       </c>
       <c r="AC456">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457" spans="1:29" x14ac:dyDescent="0.2">
@@ -41038,7 +41038,7 @@
         <v>2722</v>
       </c>
       <c r="AC457">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458" spans="1:29" x14ac:dyDescent="0.2">
@@ -41216,7 +41216,7 @@
         <v>213715</v>
       </c>
       <c r="AC459">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:29" x14ac:dyDescent="0.2">
@@ -41305,7 +41305,7 @@
         <v>33138</v>
       </c>
       <c r="AC460">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461" spans="1:29" x14ac:dyDescent="0.2">
@@ -41394,7 +41394,7 @@
         <v>19815</v>
       </c>
       <c r="AC461">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:29" x14ac:dyDescent="0.2">
@@ -41483,7 +41483,7 @@
         <v>2165</v>
       </c>
       <c r="AC462">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463" spans="1:29" x14ac:dyDescent="0.2">
@@ -41661,7 +41661,7 @@
         <v>1554</v>
       </c>
       <c r="AC464">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="465" spans="1:29" x14ac:dyDescent="0.2">
@@ -41839,7 +41839,7 @@
         <v>38618</v>
       </c>
       <c r="AC466">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="467" spans="1:29" x14ac:dyDescent="0.2">
@@ -41928,7 +41928,7 @@
         <v>7057</v>
       </c>
       <c r="AC467">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:29" x14ac:dyDescent="0.2">
@@ -42106,7 +42106,7 @@
         <v>6019</v>
       </c>
       <c r="AC469">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470" spans="1:29" x14ac:dyDescent="0.2">
@@ -42195,7 +42195,7 @@
         <v>5019</v>
       </c>
       <c r="AC470">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="471" spans="1:29" x14ac:dyDescent="0.2">
@@ -42284,7 +42284,7 @@
         <v>125636</v>
       </c>
       <c r="AC471">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:29" x14ac:dyDescent="0.2">
@@ -42373,7 +42373,7 @@
         <v>8934</v>
       </c>
       <c r="AC472">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="473" spans="1:29" x14ac:dyDescent="0.2">
@@ -42462,7 +42462,7 @@
         <v>18471</v>
       </c>
       <c r="AC473">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="474" spans="1:29" x14ac:dyDescent="0.2">
@@ -42551,7 +42551,7 @@
         <v>793</v>
       </c>
       <c r="AC474">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475" spans="1:29" x14ac:dyDescent="0.2">
@@ -42640,7 +42640,7 @@
         <v>138969</v>
       </c>
       <c r="AC475">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="476" spans="1:29" x14ac:dyDescent="0.2">
@@ -42729,7 +42729,7 @@
         <v>1725</v>
       </c>
       <c r="AC476">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477" spans="1:29" x14ac:dyDescent="0.2">
@@ -42818,7 +42818,7 @@
         <v>4026</v>
       </c>
       <c r="AC477">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478" spans="1:29" x14ac:dyDescent="0.2">
@@ -42907,7 +42907,7 @@
         <v>23546</v>
       </c>
       <c r="AC478">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="479" spans="1:29" x14ac:dyDescent="0.2">
@@ -42996,7 +42996,7 @@
         <v>35037</v>
       </c>
       <c r="AC479">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:29" x14ac:dyDescent="0.2">
@@ -43085,7 +43085,7 @@
         <v>8688</v>
       </c>
       <c r="AC480">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="481" spans="1:29" x14ac:dyDescent="0.2">
@@ -43174,7 +43174,7 @@
         <v>4588</v>
       </c>
       <c r="AC481">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="482" spans="1:29" x14ac:dyDescent="0.2">
@@ -43263,7 +43263,7 @@
         <v>3852</v>
       </c>
       <c r="AC482">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483" spans="1:29" x14ac:dyDescent="0.2">
@@ -43352,7 +43352,7 @@
         <v>2618</v>
       </c>
       <c r="AC483">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="484" spans="1:29" x14ac:dyDescent="0.2">
@@ -43441,7 +43441,7 @@
         <v>1491</v>
       </c>
       <c r="AC484">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="485" spans="1:29" x14ac:dyDescent="0.2">
@@ -43530,7 +43530,7 @@
         <v>3113</v>
       </c>
       <c r="AC485">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="486" spans="1:29" x14ac:dyDescent="0.2">
@@ -43797,7 +43797,7 @@
         <v>58150</v>
       </c>
       <c r="AC488">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="489" spans="1:29" x14ac:dyDescent="0.2">
@@ -43886,7 +43886,7 @@
         <v>19226</v>
       </c>
       <c r="AC489">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:29" x14ac:dyDescent="0.2">
@@ -44064,7 +44064,7 @@
         <v>7426</v>
       </c>
       <c r="AC491">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492" spans="1:29" x14ac:dyDescent="0.2">
@@ -44153,7 +44153,7 @@
         <v>15705</v>
       </c>
       <c r="AC492">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="493" spans="1:29" x14ac:dyDescent="0.2">
@@ -44331,7 +44331,7 @@
         <v>29815</v>
       </c>
       <c r="AC494">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="495" spans="1:29" x14ac:dyDescent="0.2">
@@ -44420,7 +44420,7 @@
         <v>9069</v>
       </c>
       <c r="AC495">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496" spans="1:29" x14ac:dyDescent="0.2">
@@ -44509,7 +44509,7 @@
         <v>7200</v>
       </c>
       <c r="AC496">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="497" spans="1:29" x14ac:dyDescent="0.2">
@@ -44687,7 +44687,7 @@
         <v>5702</v>
       </c>
       <c r="AC498">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="499" spans="1:29" x14ac:dyDescent="0.2">
@@ -44776,7 +44776,7 @@
         <v>203514</v>
       </c>
       <c r="AC499">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500" spans="1:29" x14ac:dyDescent="0.2">
@@ -44954,7 +44954,7 @@
         <v>1815</v>
       </c>
       <c r="AC501">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:29" x14ac:dyDescent="0.2">
@@ -45043,7 +45043,7 @@
         <v>3640</v>
       </c>
       <c r="AC502">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="503" spans="1:29" x14ac:dyDescent="0.2">
@@ -45132,7 +45132,7 @@
         <v>1185</v>
       </c>
       <c r="AC503">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="504" spans="1:29" x14ac:dyDescent="0.2">
@@ -45221,7 +45221,7 @@
         <v>15007</v>
       </c>
       <c r="AC504">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="505" spans="1:29" x14ac:dyDescent="0.2">
@@ -45399,7 +45399,7 @@
         <v>80239</v>
       </c>
       <c r="AC506">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="507" spans="1:29" x14ac:dyDescent="0.2">
@@ -45488,7 +45488,7 @@
         <v>731</v>
       </c>
       <c r="AC507">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="508" spans="1:29" x14ac:dyDescent="0.2">
@@ -45577,7 +45577,7 @@
         <v>17164</v>
       </c>
       <c r="AC508">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:29" x14ac:dyDescent="0.2">
@@ -45666,7 +45666,7 @@
         <v>5288</v>
       </c>
       <c r="AC509">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:29" x14ac:dyDescent="0.2">
@@ -45844,7 +45844,7 @@
         <v>46349</v>
       </c>
       <c r="AC511">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:29" x14ac:dyDescent="0.2">
@@ -45933,7 +45933,7 @@
         <v>393335</v>
       </c>
       <c r="AC512">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="513" spans="1:29" x14ac:dyDescent="0.2">
@@ -46022,7 +46022,7 @@
         <v>14577</v>
       </c>
       <c r="AC513">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:29" x14ac:dyDescent="0.2">
@@ -46111,7 +46111,7 @@
         <v>383997</v>
       </c>
       <c r="AC514">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:29" x14ac:dyDescent="0.2">
@@ -46200,7 +46200,7 @@
         <v>6137</v>
       </c>
       <c r="AC515">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="516" spans="1:29" x14ac:dyDescent="0.2">
@@ -46378,7 +46378,7 @@
         <v>6026</v>
       </c>
       <c r="AC517">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="518" spans="1:29" x14ac:dyDescent="0.2">
@@ -46467,7 +46467,7 @@
         <v>3940</v>
       </c>
       <c r="AC518">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:29" x14ac:dyDescent="0.2">
@@ -46645,7 +46645,7 @@
         <v>2049</v>
       </c>
       <c r="AC520">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521" spans="1:29" x14ac:dyDescent="0.2">
@@ -46734,7 +46734,7 @@
         <v>3255</v>
       </c>
       <c r="AC521">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522" spans="1:29" x14ac:dyDescent="0.2">
@@ -46823,7 +46823,7 @@
         <v>10679</v>
       </c>
       <c r="AC522">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:29" x14ac:dyDescent="0.2">
@@ -46912,7 +46912,7 @@
         <v>5820</v>
       </c>
       <c r="AC523">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="524" spans="1:29" x14ac:dyDescent="0.2">
@@ -47001,7 +47001,7 @@
         <v>20469</v>
       </c>
       <c r="AC524">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525" spans="1:29" x14ac:dyDescent="0.2">
@@ -47090,7 +47090,7 @@
         <v>723708</v>
       </c>
       <c r="AC525">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="526" spans="1:29" x14ac:dyDescent="0.2">
@@ -47179,7 +47179,7 @@
         <v>6764</v>
       </c>
       <c r="AC526">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:29" x14ac:dyDescent="0.2">
@@ -47357,7 +47357,7 @@
         <v>7569</v>
       </c>
       <c r="AC528">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:29" x14ac:dyDescent="0.2">
@@ -47535,7 +47535,7 @@
         <v>3178</v>
       </c>
       <c r="AC530">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531" spans="1:29" x14ac:dyDescent="0.2">
@@ -47624,7 +47624,7 @@
         <v>8454</v>
       </c>
       <c r="AC531">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="532" spans="1:29" x14ac:dyDescent="0.2">
@@ -47713,7 +47713,7 @@
         <v>37540</v>
       </c>
       <c r="AC532">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="533" spans="1:29" x14ac:dyDescent="0.2">
@@ -47802,7 +47802,7 @@
         <v>3674</v>
       </c>
       <c r="AC533">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="534" spans="1:29" x14ac:dyDescent="0.2">
@@ -47891,7 +47891,7 @@
         <v>962</v>
       </c>
       <c r="AC534">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="535" spans="1:29" x14ac:dyDescent="0.2">
@@ -47980,7 +47980,7 @@
         <v>40441</v>
       </c>
       <c r="AC535">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="536" spans="1:29" x14ac:dyDescent="0.2">
@@ -48069,7 +48069,7 @@
         <v>7801</v>
       </c>
       <c r="AC536">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537" spans="1:29" x14ac:dyDescent="0.2">
@@ -48158,7 +48158,7 @@
         <v>40789</v>
       </c>
       <c r="AC537">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="538" spans="1:29" x14ac:dyDescent="0.2">
@@ -48336,7 +48336,7 @@
         <v>3048</v>
       </c>
       <c r="AC539">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540" spans="1:29" x14ac:dyDescent="0.2">
@@ -48425,7 +48425,7 @@
         <v>44490</v>
       </c>
       <c r="AC540">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="541" spans="1:29" x14ac:dyDescent="0.2">
@@ -48514,7 +48514,7 @@
         <v>2126</v>
       </c>
       <c r="AC541">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="542" spans="1:29" x14ac:dyDescent="0.2">
@@ -48781,7 +48781,7 @@
         <v>5354</v>
       </c>
       <c r="AC544">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:29" x14ac:dyDescent="0.2">
@@ -48959,7 +48959,7 @@
         <v>52822</v>
       </c>
       <c r="AC546">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:29" x14ac:dyDescent="0.2">
@@ -49048,7 +49048,7 @@
         <v>5800</v>
       </c>
       <c r="AC547">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548" spans="1:29" x14ac:dyDescent="0.2">
@@ -49137,7 +49137,7 @@
         <v>8580</v>
       </c>
       <c r="AC548">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:29" x14ac:dyDescent="0.2">
@@ -49404,7 +49404,7 @@
         <v>1635</v>
       </c>
       <c r="AC551">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="552" spans="1:29" x14ac:dyDescent="0.2">
@@ -49493,7 +49493,7 @@
         <v>2104</v>
       </c>
       <c r="AC552">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="553" spans="1:29" x14ac:dyDescent="0.2">
@@ -49582,7 +49582,7 @@
         <v>215104</v>
       </c>
       <c r="AC553">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="554" spans="1:29" x14ac:dyDescent="0.2">
@@ -49671,7 +49671,7 @@
         <v>52300</v>
       </c>
       <c r="AC554">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="555" spans="1:29" x14ac:dyDescent="0.2">
@@ -49760,7 +49760,7 @@
         <v>5580</v>
       </c>
       <c r="AC555">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:29" x14ac:dyDescent="0.2">
@@ -49849,7 +49849,7 @@
         <v>3143</v>
       </c>
       <c r="AC556">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="557" spans="1:29" x14ac:dyDescent="0.2">
@@ -49938,7 +49938,7 @@
         <v>28611</v>
       </c>
       <c r="AC557">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="558" spans="1:29" x14ac:dyDescent="0.2">
@@ -50027,7 +50027,7 @@
         <v>4352</v>
       </c>
       <c r="AC558">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="559" spans="1:29" x14ac:dyDescent="0.2">
@@ -50116,7 +50116,7 @@
         <v>1793402</v>
       </c>
       <c r="AC559">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="560" spans="1:29" x14ac:dyDescent="0.2">
@@ -50294,7 +50294,7 @@
         <v>1380083</v>
       </c>
       <c r="AC561">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562" spans="1:29" x14ac:dyDescent="0.2">
@@ -50383,7 +50383,7 @@
         <v>272080</v>
       </c>
       <c r="AC562">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:29" x14ac:dyDescent="0.2">
@@ -50472,7 +50472,7 @@
         <v>81520</v>
       </c>
       <c r="AC563">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564" spans="1:29" x14ac:dyDescent="0.2">
@@ -50561,7 +50561,7 @@
         <v>2033</v>
       </c>
       <c r="AC564">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="565" spans="1:29" x14ac:dyDescent="0.2">
@@ -50650,7 +50650,7 @@
         <v>97020</v>
       </c>
       <c r="AC565">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:29" x14ac:dyDescent="0.2">
@@ -50739,7 +50739,7 @@
         <v>2423</v>
       </c>
       <c r="AC566">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:29" x14ac:dyDescent="0.2">
@@ -50828,7 +50828,7 @@
         <v>1581</v>
       </c>
       <c r="AC567">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568" spans="1:29" x14ac:dyDescent="0.2">
@@ -51006,7 +51006,7 @@
         <v>776113</v>
       </c>
       <c r="AC569">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:29" x14ac:dyDescent="0.2">
@@ -51095,7 +51095,7 @@
         <v>7605</v>
       </c>
       <c r="AC570">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571" spans="1:29" x14ac:dyDescent="0.2">
@@ -51184,7 +51184,7 @@
         <v>12622</v>
       </c>
       <c r="AC571">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="572" spans="1:29" x14ac:dyDescent="0.2">
@@ -51273,7 +51273,7 @@
         <v>34429</v>
       </c>
       <c r="AC572">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573" spans="1:29" x14ac:dyDescent="0.2">
@@ -51362,7 +51362,7 @@
         <v>81447</v>
       </c>
       <c r="AC573">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574" spans="1:29" x14ac:dyDescent="0.2">
@@ -51451,7 +51451,7 @@
         <v>3654</v>
       </c>
       <c r="AC574">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="575" spans="1:29" x14ac:dyDescent="0.2">
@@ -51629,7 +51629,7 @@
         <v>6808</v>
       </c>
       <c r="AC576">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="577" spans="1:29" x14ac:dyDescent="0.2">
@@ -51718,7 +51718,7 @@
         <v>64787</v>
       </c>
       <c r="AC577">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578" spans="1:29" x14ac:dyDescent="0.2">
@@ -51896,7 +51896,7 @@
         <v>1496</v>
       </c>
       <c r="AC579">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580" spans="1:29" x14ac:dyDescent="0.2">
@@ -51985,7 +51985,7 @@
         <v>1094484</v>
       </c>
       <c r="AC580">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:29" x14ac:dyDescent="0.2">
@@ -52074,7 +52074,7 @@
         <v>2057</v>
       </c>
       <c r="AC581">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="582" spans="1:29" x14ac:dyDescent="0.2">
@@ -52163,7 +52163,7 @@
         <v>2534</v>
       </c>
       <c r="AC582">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" spans="1:29" x14ac:dyDescent="0.2">
@@ -52341,7 +52341,7 @@
         <v>2032</v>
       </c>
       <c r="AC584">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="585" spans="1:29" x14ac:dyDescent="0.2">
@@ -52430,7 +52430,7 @@
         <v>53991</v>
       </c>
       <c r="AC585">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586" spans="1:29" x14ac:dyDescent="0.2">
@@ -52519,7 +52519,7 @@
         <v>11924</v>
       </c>
       <c r="AC586">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="587" spans="1:29" x14ac:dyDescent="0.2">
@@ -52608,7 +52608,7 @@
         <v>264369</v>
       </c>
       <c r="AC587">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588" spans="1:29" x14ac:dyDescent="0.2">
@@ -52697,7 +52697,7 @@
         <v>63942</v>
       </c>
       <c r="AC588">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:29" x14ac:dyDescent="0.2">
@@ -52786,7 +52786,7 @@
         <v>15163</v>
       </c>
       <c r="AC589">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:29" x14ac:dyDescent="0.2">
@@ -52875,7 +52875,7 @@
         <v>1473</v>
       </c>
       <c r="AC590">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="591" spans="1:29" x14ac:dyDescent="0.2">
@@ -52964,7 +52964,7 @@
         <v>21241</v>
       </c>
       <c r="AC591">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592" spans="1:29" x14ac:dyDescent="0.2">
@@ -53053,7 +53053,7 @@
         <v>3463</v>
       </c>
       <c r="AC592">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="593" spans="1:29" x14ac:dyDescent="0.2">
@@ -53142,7 +53142,7 @@
         <v>1742</v>
       </c>
       <c r="AC593">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="594" spans="1:29" x14ac:dyDescent="0.2">
@@ -53231,7 +53231,7 @@
         <v>19414</v>
       </c>
       <c r="AC594">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="595" spans="1:29" x14ac:dyDescent="0.2">
@@ -53409,7 +53409,7 @@
         <v>2322951</v>
       </c>
       <c r="AC596">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="597" spans="1:29" x14ac:dyDescent="0.2">
@@ -53498,7 +53498,7 @@
         <v>76535</v>
       </c>
       <c r="AC597">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="598" spans="1:29" x14ac:dyDescent="0.2">
@@ -53587,7 +53587,7 @@
         <v>1725</v>
       </c>
       <c r="AC598">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="599" spans="1:29" x14ac:dyDescent="0.2">
@@ -53765,7 +53765,7 @@
         <v>645195</v>
       </c>
       <c r="AC600">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601" spans="1:29" x14ac:dyDescent="0.2">
@@ -53854,7 +53854,7 @@
         <v>87080</v>
       </c>
       <c r="AC601">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602" spans="1:29" x14ac:dyDescent="0.2">
@@ -53943,7 +53943,7 @@
         <v>33899</v>
       </c>
       <c r="AC602">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="603" spans="1:29" x14ac:dyDescent="0.2">
@@ -54032,7 +54032,7 @@
         <v>1299</v>
       </c>
       <c r="AC603">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="604" spans="1:29" x14ac:dyDescent="0.2">
@@ -54121,7 +54121,7 @@
         <v>11544</v>
       </c>
       <c r="AC604">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:29" x14ac:dyDescent="0.2">
@@ -54210,7 +54210,7 @@
         <v>1813</v>
       </c>
       <c r="AC605">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="606" spans="1:29" x14ac:dyDescent="0.2">
@@ -54299,7 +54299,7 @@
         <v>4565</v>
       </c>
       <c r="AC606">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="607" spans="1:29" x14ac:dyDescent="0.2">
@@ -54388,7 +54388,7 @@
         <v>2226709</v>
       </c>
       <c r="AC607">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="608" spans="1:29" x14ac:dyDescent="0.2">
@@ -54477,7 +54477,7 @@
         <v>58132</v>
       </c>
       <c r="AC608">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="609" spans="1:29" x14ac:dyDescent="0.2">
@@ -54566,7 +54566,7 @@
         <v>11510</v>
       </c>
       <c r="AC609">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="610" spans="1:29" x14ac:dyDescent="0.2">
@@ -54655,7 +54655,7 @@
         <v>2065</v>
       </c>
       <c r="AC610">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611" spans="1:29" x14ac:dyDescent="0.2">
@@ -54744,7 +54744,7 @@
         <v>423636</v>
       </c>
       <c r="AC611">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612" spans="1:29" x14ac:dyDescent="0.2">
@@ -54833,7 +54833,7 @@
         <v>10764</v>
       </c>
       <c r="AC612">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="613" spans="1:29" x14ac:dyDescent="0.2">
@@ -54922,7 +54922,7 @@
         <v>1581</v>
       </c>
       <c r="AC613">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="614" spans="1:29" x14ac:dyDescent="0.2">
@@ -55011,7 +55011,7 @@
         <v>1827</v>
       </c>
       <c r="AC614">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="615" spans="1:29" x14ac:dyDescent="0.2">
@@ -55100,7 +55100,7 @@
         <v>4519</v>
       </c>
       <c r="AC615">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616" spans="1:29" x14ac:dyDescent="0.2">
@@ -55189,7 +55189,7 @@
         <v>1472</v>
       </c>
       <c r="AC616">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="617" spans="1:29" x14ac:dyDescent="0.2">
@@ -55367,7 +55367,7 @@
         <v>1421</v>
       </c>
       <c r="AC618">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="619" spans="1:29" x14ac:dyDescent="0.2">
@@ -55456,7 +55456,7 @@
         <v>4124</v>
       </c>
       <c r="AC619">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="620" spans="1:29" x14ac:dyDescent="0.2">
@@ -55545,7 +55545,7 @@
         <v>3149</v>
       </c>
       <c r="AC620">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="621" spans="1:29" x14ac:dyDescent="0.2">
@@ -55634,7 +55634,7 @@
         <v>2084</v>
       </c>
       <c r="AC621">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="622" spans="1:29" x14ac:dyDescent="0.2">
@@ -55723,7 +55723,7 @@
         <v>1297</v>
       </c>
       <c r="AC622">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623" spans="1:29" x14ac:dyDescent="0.2">
@@ -55901,7 +55901,7 @@
         <v>7996</v>
       </c>
       <c r="AC624">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="625" spans="1:29" x14ac:dyDescent="0.2">
@@ -55990,7 +55990,7 @@
         <v>1845104</v>
       </c>
       <c r="AC625">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="626" spans="1:29" x14ac:dyDescent="0.2">
@@ -56079,7 +56079,7 @@
         <v>101550</v>
       </c>
       <c r="AC626">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="627" spans="1:29" x14ac:dyDescent="0.2">
@@ -56346,7 +56346,7 @@
         <v>5754</v>
       </c>
       <c r="AC629">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="630" spans="1:29" x14ac:dyDescent="0.2">
@@ -56435,7 +56435,7 @@
         <v>1481</v>
       </c>
       <c r="AC630">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="631" spans="1:29" x14ac:dyDescent="0.2">
@@ -56613,7 +56613,7 @@
         <v>77064</v>
       </c>
       <c r="AC632">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="633" spans="1:29" x14ac:dyDescent="0.2">
@@ -56702,7 +56702,7 @@
         <v>28512</v>
       </c>
       <c r="AC633">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="634" spans="1:29" x14ac:dyDescent="0.2">
@@ -56791,7 +56791,7 @@
         <v>5540</v>
       </c>
       <c r="AC634">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="635" spans="1:29" x14ac:dyDescent="0.2">
@@ -56880,7 +56880,7 @@
         <v>90039</v>
       </c>
       <c r="AC635">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="636" spans="1:29" x14ac:dyDescent="0.2">
@@ -56969,7 +56969,7 @@
         <v>12028</v>
       </c>
       <c r="AC636">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="637" spans="1:29" x14ac:dyDescent="0.2">
@@ -57147,7 +57147,7 @@
         <v>61809</v>
       </c>
       <c r="AC638">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="639" spans="1:29" x14ac:dyDescent="0.2">
@@ -57236,7 +57236,7 @@
         <v>3531</v>
       </c>
       <c r="AC639">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="640" spans="1:29" x14ac:dyDescent="0.2">
@@ -57325,7 +57325,7 @@
         <v>4355</v>
       </c>
       <c r="AC640">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="641" spans="1:29" x14ac:dyDescent="0.2">
@@ -57414,7 +57414,7 @@
         <v>2712</v>
       </c>
       <c r="AC641">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="642" spans="1:29" x14ac:dyDescent="0.2">
@@ -57503,7 +57503,7 @@
         <v>5175</v>
       </c>
       <c r="AC642">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="643" spans="1:29" x14ac:dyDescent="0.2">
@@ -57681,7 +57681,7 @@
         <v>4005</v>
       </c>
       <c r="AC644">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="645" spans="1:29" x14ac:dyDescent="0.2">
@@ -57859,7 +57859,7 @@
         <v>12535</v>
       </c>
       <c r="AC646">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="647" spans="1:29" x14ac:dyDescent="0.2">
@@ -57948,7 +57948,7 @@
         <v>3292</v>
       </c>
       <c r="AC647">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="648" spans="1:29" x14ac:dyDescent="0.2">
@@ -58037,7 +58037,7 @@
         <v>11473</v>
       </c>
       <c r="AC648">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="649" spans="1:29" x14ac:dyDescent="0.2">
@@ -58126,7 +58126,7 @@
         <v>1311111</v>
       </c>
       <c r="AC649">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="650" spans="1:29" x14ac:dyDescent="0.2">
@@ -58215,7 +58215,7 @@
         <v>736033</v>
       </c>
       <c r="AC650">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="651" spans="1:29" x14ac:dyDescent="0.2">
@@ -58304,7 +58304,7 @@
         <v>9884</v>
       </c>
       <c r="AC651">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="652" spans="1:29" x14ac:dyDescent="0.2">
@@ -58393,7 +58393,7 @@
         <v>117439</v>
       </c>
       <c r="AC652">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="653" spans="1:29" x14ac:dyDescent="0.2">
@@ -58482,7 +58482,7 @@
         <v>1546</v>
       </c>
       <c r="AC653">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="654" spans="1:29" x14ac:dyDescent="0.2">
@@ -58660,7 +58660,7 @@
         <v>2593</v>
       </c>
       <c r="AC655">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="656" spans="1:29" x14ac:dyDescent="0.2">
@@ -58838,7 +58838,7 @@
         <v>611890</v>
       </c>
       <c r="AC657">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="658" spans="1:29" x14ac:dyDescent="0.2">
@@ -58927,7 +58927,7 @@
         <v>6291437</v>
       </c>
       <c r="AC658">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="659" spans="1:29" x14ac:dyDescent="0.2">
@@ -59016,7 +59016,7 @@
         <v>514377</v>
       </c>
       <c r="AC659">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="660" spans="1:29" x14ac:dyDescent="0.2">
@@ -59105,7 +59105,7 @@
         <v>3563</v>
       </c>
       <c r="AC660">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="661" spans="1:29" x14ac:dyDescent="0.2">
@@ -59194,7 +59194,7 @@
         <v>1179</v>
       </c>
       <c r="AC661">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="662" spans="1:29" x14ac:dyDescent="0.2">
@@ -59283,7 +59283,7 @@
         <v>4692</v>
       </c>
       <c r="AC662">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="663" spans="1:29" x14ac:dyDescent="0.2">
@@ -59461,7 +59461,7 @@
         <v>21733</v>
       </c>
       <c r="AC664">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="665" spans="1:29" x14ac:dyDescent="0.2">
@@ -59550,7 +59550,7 @@
         <v>185946</v>
       </c>
       <c r="AC665">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="666" spans="1:29" x14ac:dyDescent="0.2">
@@ -59639,7 +59639,7 @@
         <v>3191</v>
       </c>
       <c r="AC666">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="667" spans="1:29" x14ac:dyDescent="0.2">
@@ -59728,7 +59728,7 @@
         <v>11818</v>
       </c>
       <c r="AC667">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="668" spans="1:29" x14ac:dyDescent="0.2">
@@ -59817,7 +59817,7 @@
         <v>4391</v>
       </c>
       <c r="AC668">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="669" spans="1:29" x14ac:dyDescent="0.2">
@@ -59906,7 +59906,7 @@
         <v>2450</v>
       </c>
       <c r="AC669">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670" spans="1:29" x14ac:dyDescent="0.2">
@@ -59995,7 +59995,7 @@
         <v>733</v>
       </c>
       <c r="AC670">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="671" spans="1:29" x14ac:dyDescent="0.2">
@@ -60084,7 +60084,7 @@
         <v>35336</v>
       </c>
       <c r="AC671">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="672" spans="1:29" x14ac:dyDescent="0.2">
@@ -60173,7 +60173,7 @@
         <v>2098</v>
       </c>
       <c r="AC672">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="673" spans="1:29" x14ac:dyDescent="0.2">
@@ -60262,7 +60262,7 @@
         <v>1350</v>
       </c>
       <c r="AC673">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="674" spans="1:29" x14ac:dyDescent="0.2">
@@ -60351,7 +60351,7 @@
         <v>8440</v>
       </c>
       <c r="AC674">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="675" spans="1:29" x14ac:dyDescent="0.2">
@@ -60440,7 +60440,7 @@
         <v>4760</v>
       </c>
       <c r="AC675">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="676" spans="1:29" x14ac:dyDescent="0.2">
@@ -60529,7 +60529,7 @@
         <v>1946</v>
       </c>
       <c r="AC676">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="677" spans="1:29" x14ac:dyDescent="0.2">
@@ -60618,7 +60618,7 @@
         <v>7711</v>
       </c>
       <c r="AC677">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="678" spans="1:29" x14ac:dyDescent="0.2">
@@ -60707,7 +60707,7 @@
         <v>380658</v>
       </c>
       <c r="AC678">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="679" spans="1:29" x14ac:dyDescent="0.2">
@@ -60796,7 +60796,7 @@
         <v>7991</v>
       </c>
       <c r="AC679">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="680" spans="1:29" x14ac:dyDescent="0.2">
@@ -60885,7 +60885,7 @@
         <v>796184</v>
       </c>
       <c r="AC680">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681" spans="1:29" x14ac:dyDescent="0.2">
@@ -61063,7 +61063,7 @@
         <v>1764</v>
       </c>
       <c r="AC682">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683" spans="1:29" x14ac:dyDescent="0.2">
@@ -61152,7 +61152,7 @@
         <v>3397</v>
       </c>
       <c r="AC683">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="684" spans="1:29" x14ac:dyDescent="0.2">
@@ -61241,7 +61241,7 @@
         <v>1106650</v>
       </c>
       <c r="AC684">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="685" spans="1:29" x14ac:dyDescent="0.2">
@@ -61330,7 +61330,7 @@
         <v>363</v>
       </c>
       <c r="AC685">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="686" spans="1:29" x14ac:dyDescent="0.2">
@@ -61419,7 +61419,7 @@
         <v>5271506</v>
       </c>
       <c r="AC686">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="687" spans="1:29" x14ac:dyDescent="0.2">
@@ -61508,7 +61508,7 @@
         <v>6572</v>
       </c>
       <c r="AC687">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="688" spans="1:29" x14ac:dyDescent="0.2">
@@ -61597,7 +61597,7 @@
         <v>11223</v>
       </c>
       <c r="AC688">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="689" spans="1:29" x14ac:dyDescent="0.2">
@@ -61686,7 +61686,7 @@
         <v>15749</v>
       </c>
       <c r="AC689">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="690" spans="1:29" x14ac:dyDescent="0.2">
@@ -61775,7 +61775,7 @@
         <v>142791</v>
       </c>
       <c r="AC690">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691" spans="1:29" x14ac:dyDescent="0.2">
@@ -61864,7 +61864,7 @@
         <v>12872</v>
       </c>
       <c r="AC691">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="692" spans="1:29" x14ac:dyDescent="0.2">
@@ -61953,7 +61953,7 @@
         <v>732775</v>
       </c>
       <c r="AC692">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="693" spans="1:29" x14ac:dyDescent="0.2">
@@ -62042,7 +62042,7 @@
         <v>2396</v>
       </c>
       <c r="AC693">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="694" spans="1:29" x14ac:dyDescent="0.2">
@@ -62131,7 +62131,7 @@
         <v>402656</v>
       </c>
       <c r="AC694">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="695" spans="1:29" x14ac:dyDescent="0.2">
@@ -62398,7 +62398,7 @@
         <v>3295</v>
       </c>
       <c r="AC697">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="698" spans="1:29" x14ac:dyDescent="0.2">
@@ -62576,7 +62576,7 @@
         <v>6877</v>
       </c>
       <c r="AC699">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="700" spans="1:29" x14ac:dyDescent="0.2">
@@ -62665,7 +62665,7 @@
         <v>797</v>
       </c>
       <c r="AC700">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="701" spans="1:29" x14ac:dyDescent="0.2">
@@ -62843,7 +62843,7 @@
         <v>16688</v>
       </c>
       <c r="AC702">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="703" spans="1:29" x14ac:dyDescent="0.2">
@@ -62932,7 +62932,7 @@
         <v>2129</v>
       </c>
       <c r="AC703">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="704" spans="1:29" x14ac:dyDescent="0.2">
@@ -63021,7 +63021,7 @@
         <v>952</v>
       </c>
       <c r="AC704">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="705" spans="1:29" x14ac:dyDescent="0.2">
@@ -63110,7 +63110,7 @@
         <v>2539</v>
       </c>
       <c r="AC705">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:29" x14ac:dyDescent="0.2">
@@ -63288,7 +63288,7 @@
         <v>1204</v>
       </c>
       <c r="AC707">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="708" spans="1:29" x14ac:dyDescent="0.2">
@@ -63377,7 +63377,7 @@
         <v>4987</v>
       </c>
       <c r="AC708">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="709" spans="1:29" x14ac:dyDescent="0.2">
@@ -63466,7 +63466,7 @@
         <v>93018</v>
       </c>
       <c r="AC709">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="710" spans="1:29" x14ac:dyDescent="0.2">
@@ -63555,7 +63555,7 @@
         <v>2117837</v>
       </c>
       <c r="AC710">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="711" spans="1:29" x14ac:dyDescent="0.2">
@@ -63644,7 +63644,7 @@
         <v>2839</v>
       </c>
       <c r="AC711">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="712" spans="1:29" x14ac:dyDescent="0.2">
@@ -63733,7 +63733,7 @@
         <v>35843</v>
       </c>
       <c r="AC712">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="713" spans="1:29" x14ac:dyDescent="0.2">
@@ -63822,7 +63822,7 @@
         <v>10255</v>
       </c>
       <c r="AC713">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="714" spans="1:29" x14ac:dyDescent="0.2">
@@ -63911,7 +63911,7 @@
         <v>2243</v>
       </c>
       <c r="AC714">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="715" spans="1:29" x14ac:dyDescent="0.2">
@@ -64000,7 +64000,7 @@
         <v>7280</v>
       </c>
       <c r="AC715">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="716" spans="1:29" x14ac:dyDescent="0.2">
@@ -64089,7 +64089,7 @@
         <v>529261</v>
       </c>
       <c r="AC716">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717" spans="1:29" x14ac:dyDescent="0.2">
@@ -64178,7 +64178,7 @@
         <v>802</v>
       </c>
       <c r="AC717">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="718" spans="1:29" x14ac:dyDescent="0.2">
@@ -64267,7 +64267,7 @@
         <v>9604</v>
       </c>
       <c r="AC718">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="719" spans="1:29" x14ac:dyDescent="0.2">
@@ -64356,7 +64356,7 @@
         <v>14700</v>
       </c>
       <c r="AC719">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="720" spans="1:29" x14ac:dyDescent="0.2">
@@ -64445,7 +64445,7 @@
         <v>2155</v>
       </c>
       <c r="AC720">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="721" spans="1:29" x14ac:dyDescent="0.2">
@@ -64534,7 +64534,7 @@
         <v>4019</v>
       </c>
       <c r="AC721">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="722" spans="1:29" x14ac:dyDescent="0.2">
@@ -64623,7 +64623,7 @@
         <v>3912</v>
       </c>
       <c r="AC722">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:29" x14ac:dyDescent="0.2">
@@ -64712,7 +64712,7 @@
         <v>12084</v>
       </c>
       <c r="AC723">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="724" spans="1:29" x14ac:dyDescent="0.2">
@@ -64801,7 +64801,7 @@
         <v>1154</v>
       </c>
       <c r="AC724">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="725" spans="1:29" x14ac:dyDescent="0.2">
@@ -64890,7 +64890,7 @@
         <v>22167</v>
       </c>
       <c r="AC725">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="726" spans="1:29" x14ac:dyDescent="0.2">
@@ -64979,7 +64979,7 @@
         <v>46764</v>
       </c>
       <c r="AC726">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="727" spans="1:29" x14ac:dyDescent="0.2">
@@ -65068,7 +65068,7 @@
         <v>36171</v>
       </c>
       <c r="AC727">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="728" spans="1:29" x14ac:dyDescent="0.2">
@@ -65157,7 +65157,7 @@
         <v>13352</v>
       </c>
       <c r="AC728">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="729" spans="1:29" x14ac:dyDescent="0.2">
@@ -65246,7 +65246,7 @@
         <v>4260</v>
       </c>
       <c r="AC729">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="730" spans="1:29" x14ac:dyDescent="0.2">
@@ -65335,7 +65335,7 @@
         <v>38375</v>
       </c>
       <c r="AC730">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="731" spans="1:29" x14ac:dyDescent="0.2">
@@ -65513,7 +65513,7 @@
         <v>2825</v>
       </c>
       <c r="AC732">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="733" spans="1:29" x14ac:dyDescent="0.2">
@@ -65602,7 +65602,7 @@
         <v>2832</v>
       </c>
       <c r="AC733">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="734" spans="1:29" x14ac:dyDescent="0.2">
@@ -65691,7 +65691,7 @@
         <v>262986</v>
       </c>
       <c r="AC734">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="735" spans="1:29" x14ac:dyDescent="0.2">
@@ -65780,7 +65780,7 @@
         <v>2881</v>
       </c>
       <c r="AC735">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="736" spans="1:29" x14ac:dyDescent="0.2">
@@ -65958,7 +65958,7 @@
         <v>3753</v>
       </c>
       <c r="AC737">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="738" spans="1:29" x14ac:dyDescent="0.2">
@@ -66047,7 +66047,7 @@
         <v>15648</v>
       </c>
       <c r="AC738">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="739" spans="1:29" x14ac:dyDescent="0.2">
@@ -66136,7 +66136,7 @@
         <v>8259</v>
       </c>
       <c r="AC739">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="740" spans="1:29" x14ac:dyDescent="0.2">
@@ -66225,7 +66225,7 @@
         <v>2028</v>
       </c>
       <c r="AC740">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="741" spans="1:29" x14ac:dyDescent="0.2">
@@ -66314,7 +66314,7 @@
         <v>827</v>
       </c>
       <c r="AC741">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="742" spans="1:29" x14ac:dyDescent="0.2">
@@ -66403,7 +66403,7 @@
         <v>765</v>
       </c>
       <c r="AC742">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="743" spans="1:29" x14ac:dyDescent="0.2">
@@ -66492,7 +66492,7 @@
         <v>26192</v>
       </c>
       <c r="AC743">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744" spans="1:29" x14ac:dyDescent="0.2">
@@ -66581,7 +66581,7 @@
         <v>2781</v>
       </c>
       <c r="AC744">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="745" spans="1:29" x14ac:dyDescent="0.2">
@@ -66670,7 +66670,7 @@
         <v>5867801</v>
       </c>
       <c r="AC745">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="746" spans="1:29" x14ac:dyDescent="0.2">
@@ -66759,7 +66759,7 @@
         <v>2697</v>
       </c>
       <c r="AC746">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="747" spans="1:29" x14ac:dyDescent="0.2">
@@ -66937,7 +66937,7 @@
         <v>176808</v>
       </c>
       <c r="AC748">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="749" spans="1:29" x14ac:dyDescent="0.2">
@@ -67026,7 +67026,7 @@
         <v>11992</v>
       </c>
       <c r="AC749">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="750" spans="1:29" x14ac:dyDescent="0.2">
@@ -67115,7 +67115,7 @@
         <v>15114</v>
       </c>
       <c r="AC750">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="751" spans="1:29" x14ac:dyDescent="0.2">
@@ -67382,7 +67382,7 @@
         <v>2639</v>
       </c>
       <c r="AC753">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="754" spans="1:29" x14ac:dyDescent="0.2">
@@ -67560,7 +67560,7 @@
         <v>1233214</v>
       </c>
       <c r="AC755">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="756" spans="1:29" x14ac:dyDescent="0.2">
@@ -67649,7 +67649,7 @@
         <v>5231</v>
       </c>
       <c r="AC756">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="757" spans="1:29" x14ac:dyDescent="0.2">
@@ -67738,7 +67738,7 @@
         <v>764</v>
       </c>
       <c r="AC757">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758" spans="1:29" x14ac:dyDescent="0.2">
@@ -67827,7 +67827,7 @@
         <v>3624</v>
       </c>
       <c r="AC758">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759" spans="1:29" x14ac:dyDescent="0.2">
@@ -67916,7 +67916,7 @@
         <v>59798</v>
       </c>
       <c r="AC759">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="760" spans="1:29" x14ac:dyDescent="0.2">
@@ -68005,7 +68005,7 @@
         <v>7770</v>
       </c>
       <c r="AC760">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761" spans="1:29" x14ac:dyDescent="0.2">
@@ -68094,7 +68094,7 @@
         <v>1851</v>
       </c>
       <c r="AC761">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="762" spans="1:29" x14ac:dyDescent="0.2">
@@ -68183,7 +68183,7 @@
         <v>501</v>
       </c>
       <c r="AC762">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="763" spans="1:29" x14ac:dyDescent="0.2">
@@ -68361,7 +68361,7 @@
         <v>212261</v>
       </c>
       <c r="AC764">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="765" spans="1:29" x14ac:dyDescent="0.2">
@@ -68450,7 +68450,7 @@
         <v>350455</v>
       </c>
       <c r="AC765">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="766" spans="1:29" x14ac:dyDescent="0.2">
@@ -68539,7 +68539,7 @@
         <v>1682</v>
       </c>
       <c r="AC766">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="767" spans="1:29" x14ac:dyDescent="0.2">
@@ -68628,7 +68628,7 @@
         <v>11743</v>
       </c>
       <c r="AC767">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="768" spans="1:29" x14ac:dyDescent="0.2">
@@ -68717,7 +68717,7 @@
         <v>923</v>
       </c>
       <c r="AC768">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="769" spans="1:29" x14ac:dyDescent="0.2">
@@ -68806,7 +68806,7 @@
         <v>4718</v>
       </c>
       <c r="AC769">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="770" spans="1:29" x14ac:dyDescent="0.2">
@@ -68895,7 +68895,7 @@
         <v>44441</v>
       </c>
       <c r="AC770">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="771" spans="1:29" x14ac:dyDescent="0.2">
@@ -68984,7 +68984,7 @@
         <v>331894</v>
       </c>
       <c r="AC771">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="772" spans="1:29" x14ac:dyDescent="0.2">
@@ -69073,7 +69073,7 @@
         <v>10427</v>
       </c>
       <c r="AC772">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="773" spans="1:29" x14ac:dyDescent="0.2">
@@ -69162,7 +69162,7 @@
         <v>93156</v>
       </c>
       <c r="AC773">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="774" spans="1:29" x14ac:dyDescent="0.2">
@@ -69251,7 +69251,7 @@
         <v>125322</v>
       </c>
       <c r="AC774">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="775" spans="1:29" x14ac:dyDescent="0.2">
@@ -69340,7 +69340,7 @@
         <v>5389</v>
       </c>
       <c r="AC775">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="776" spans="1:29" x14ac:dyDescent="0.2">
@@ -69429,7 +69429,7 @@
         <v>14508</v>
       </c>
       <c r="AC776">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="777" spans="1:29" x14ac:dyDescent="0.2">
@@ -69518,7 +69518,7 @@
         <v>16878</v>
       </c>
       <c r="AC777">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="778" spans="1:29" x14ac:dyDescent="0.2">
@@ -69607,7 +69607,7 @@
         <v>8655</v>
       </c>
       <c r="AC778">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="779" spans="1:29" x14ac:dyDescent="0.2">
@@ -69696,7 +69696,7 @@
         <v>7836</v>
       </c>
       <c r="AC779">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="780" spans="1:29" x14ac:dyDescent="0.2">
@@ -69874,7 +69874,7 @@
         <v>6270</v>
       </c>
       <c r="AC781">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="782" spans="1:29" x14ac:dyDescent="0.2">
@@ -70052,7 +70052,7 @@
         <v>17273</v>
       </c>
       <c r="AC783">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="784" spans="1:29" x14ac:dyDescent="0.2">
@@ -70141,7 +70141,7 @@
         <v>4467</v>
       </c>
       <c r="AC784">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="785" spans="1:29" x14ac:dyDescent="0.2">
@@ -70230,7 +70230,7 @@
         <v>3208</v>
       </c>
       <c r="AC785">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="786" spans="1:29" x14ac:dyDescent="0.2">
@@ -70319,7 +70319,7 @@
         <v>1402</v>
       </c>
       <c r="AC786">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787" spans="1:29" x14ac:dyDescent="0.2">
@@ -70408,7 +70408,7 @@
         <v>132141</v>
       </c>
       <c r="AC787">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="788" spans="1:29" x14ac:dyDescent="0.2">
@@ -70497,7 +70497,7 @@
         <v>4676</v>
       </c>
       <c r="AC788">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="789" spans="1:29" x14ac:dyDescent="0.2">
@@ -70586,7 +70586,7 @@
         <v>2167</v>
       </c>
       <c r="AC789">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790" spans="1:29" x14ac:dyDescent="0.2">
@@ -70675,7 +70675,7 @@
         <v>547</v>
       </c>
       <c r="AC790">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791" spans="1:29" x14ac:dyDescent="0.2">
@@ -70764,7 +70764,7 @@
         <v>1110</v>
       </c>
       <c r="AC791">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
